--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_162.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_162.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,654 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1179401993355482</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['G', 'G', 'C', 'G/3'], ['C/5', 'G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['D/5', 'D', 'G', 'D'], ['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:14.628775', '0:00:26.430680'), ('0:00:27.476822', '0:00:36.159841')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:16.525575', '0:00:23.735371'), ('0:00:19.370020', '0:00:29.679679')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_45</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1122994652406417</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['G:min7', 'F/3', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['G:min7', 'F/3', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:28.847000', '0:01:36.154000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:01.592000', '0:01:04.473000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1475128644939966</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_56</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2181122448979592</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.6, 37.55)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(28.19, 44.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:03:29.040000', '0:03:37.180000'), ('0:00:49.280000', '0:00:56.880000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08488372093023255</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'D/3', 'G']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2507836990595611</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:maj/G#', 'F#:maj']]</t>
+          <t>[['G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.414, 17.044)]</t>
+          <t>[['E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.18, 36.6)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:18.956067', '0:00:28.202000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:08.504874')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06897463002114165</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1199186991869919</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B/7']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.179070', '0:00:21.844739')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.28, 17.3)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.6, 24.08)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.96, 13.12)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.56, 27.36)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(47.68, 56.48)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(92.26, 99.02), (124.3, 129.24)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(115.56, 124.8), (22.4, 31.86)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1399594320486816</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D'], ['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'B', 'E']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585), (33.431496, 38.307687)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669), (12.971, 19.435)]</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(50.46, 54.48)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.76, 24.02)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1067251461988304</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:min', 'Eb:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(96.752312, 99.387777)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.96, 9.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
